--- a/docs/docs/colin-crud/CO-CPRD-AR-Filing.xlsx
+++ b/docs/docs/colin-crud/CO-CPRD-AR-Filing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C066611F-A9F4-45F6-99C9-08F458A4BCCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B57A9915-E988-48AB-80DC-55403C7BDCE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" activeTab="6" xr2:uid="{6496526C-3854-45C4-8AA5-3E9C41776121}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" xr2:uid="{6496526C-3854-45C4-8AA5-3E9C41776121}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Scenarios" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>event_id</t>
   </si>
@@ -215,17 +215,6 @@
   </si>
   <si>
     <t>7.  Update the corporation table with this Corrected AR filing date and last_ledger_update columns, last_agm date.</t>
-  </si>
-  <si>
-    <t>If the user mistakenly made a correction to the AR fields, there will be no specific cancellation, it will need to be an additional correction.
-Same correction logic applies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Report No AGM was held.
-</t>
-  </si>
-  <si>
-    <t>6. File an AR when an extension has been granted.</t>
   </si>
   <si>
     <t>4. Remove an AR Filing</t>
@@ -258,172 +247,206 @@
 START_EVENT_ID = NEW EVENT_ID</t>
   </si>
   <si>
-    <t>An extension and correction to extension will be a spearate filing however an overview is provided here for reference.
-Rules to get an extension:
-1) Must be in good standing.
-2) Must have had an AGM last year.
-3)  Must be on or after Nov. 1st of the filing year.
-4)  Must be on or before March 31, of the following year.
-Eg. Agm date was supposed to be Jan. 15, 2018.  Asked for an extension on Nov. 11 th, in 2018 for the AGM to be held on Mar 13, 2019.  An extension is not allowed after 12-31-2018.
-The system verified they had an AGM in 2017 and that they are in good standing and they are requesting an AGM date before March 31, 2019 so it is accepted ad filed.
-The system records an Extension to the AGM Date filing with ledger text.
-When the 2018 filing is completed the AGM Date will be Mar 13,2019.  The system will verify that the exnestin filing was granted to allow an AGM date in 2019 for the 2018 filing.</t>
-  </si>
-  <si>
     <t>X
 event_typ_cd='FILE'</t>
   </si>
   <si>
     <t>2. Insert into the event table , event_typ_cd=FILE</t>
+  </si>
+  <si>
+    <t>9. Produce Original Annual Report Document using the filing date.</t>
+  </si>
+  <si>
+    <t>Optional for AR
+Required for Corrected AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set up an AR like the "basic AR Filing" scenario with No AGM_Date and ledeger_text that reflects NO AGM was held for 2018. </t>
+  </si>
+  <si>
+    <t>OTANN</t>
+  </si>
+  <si>
+    <t>OTCGM</t>
+  </si>
+  <si>
+    <t>AR Filing</t>
+  </si>
+  <si>
+    <t>Extension to AGM for 2019</t>
+  </si>
+  <si>
+    <t>OTAGM</t>
+  </si>
+  <si>
+    <t>2019-11-01  16:00:00 PM</t>
+  </si>
+  <si>
+    <t>2019-11-01  13:00:00 AM</t>
+  </si>
+  <si>
+    <t>8.If the payment was successful and the current corp_state != 'ACT' and they just filed the last outstanding ARs:
+UPDATE CORP_STATE set end_event_id = new_event_id
+INSERT INTO CORP_STATE state_typ_cd = 'ACT' and start_event_id = new event_id</t>
+  </si>
+  <si>
+    <t>UPDATE CORP_STATE set end_event_id = new_event_id</t>
+  </si>
+  <si>
+    <t>INSERT INTO CORP_STATE state_typ_cd = 'ACT' and start_event_id = new event_id</t>
+  </si>
+  <si>
+    <t>CORPORATION</t>
+  </si>
+  <si>
+    <t>LAST_AR_FILED_DT</t>
+  </si>
+  <si>
+    <t>LAST_AGM_DATE</t>
+  </si>
+  <si>
+    <t>LAST_LEDGER_DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x
+LAST_AR_FILED_DT,
+LAST_AGM_DATE,
+LAST_LEDGER_DT
+</t>
+  </si>
+  <si>
+    <t>OTCAN</t>
+  </si>
+  <si>
+    <t>Correction to the AR Filing - Requires ledger Text</t>
+  </si>
+  <si>
+    <t>Corrected 2018 Annual Report</t>
+  </si>
+  <si>
+    <t>Corrected AGM Date</t>
+  </si>
+  <si>
+    <t>Correction to AGM Extension for 2019</t>
+  </si>
+  <si>
+    <t>NO AGM Held for 2018 Annual Report Filing</t>
+  </si>
+  <si>
+    <t>CP0001306</t>
+  </si>
+  <si>
+    <t>CP0001307</t>
+  </si>
+  <si>
+    <t>Started in DS1, after submission back to Active.</t>
+  </si>
+  <si>
+    <t>CP0001308</t>
+  </si>
+  <si>
+    <t>2019-01-01  18:01:00 PM</t>
+  </si>
+  <si>
+    <t>1. Set the new event_id using the noncorp_event_seq. nextval</t>
   </si>
   <si>
     <t>3. Insert into the filing table using the event_id and AR filing type
 effective_date = TODAY (filing date)
 filing_typ_cd='OTANN'
-period_end_dt = AGM Date entered (CORPS record it this way)
-AGM_DATE = AGM Date entered (Societies record it this way)</t>
-  </si>
-  <si>
-    <t>9. Produce Original Annual Report Document using the filing date.</t>
-  </si>
-  <si>
-    <t>3. Insert into the filing table using the event_id and AR filing type
+period_end_dt = AGM Date for BC Co-ops/ anniversary date of registration for XPRO co-ops (corporation record it this way) 
+AGM_DATE = AGM Date for BC Co-ops (Societies record it this way)/anniversary date of registration for XPRO co-ops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Insert into the filing table using the event_id and AR filing type
 effective_date = TODAY (filing date)
 filing_typ_cd='OTAMR'
-period_end_dt = AGM Date entered (CORPS record it this way)
-AGM_DATE = AGM Date entered (Societies record it this way)</t>
-  </si>
-  <si>
-    <t>Optional for AR
-Required for Corrected AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set up an AR like the "basic AR Filing" scenario with No AGM_Date and ledeger_text that reflects NO AGM was held for 2018. </t>
-  </si>
-  <si>
-    <t>The system must ensure the filing date is the next year before allowing No AGM Held.
-The filing date must be greater than 12-31. Therefore they cannot report NO AGM held for 2018 until 01-01-2019.</t>
-  </si>
-  <si>
-    <t>Ensure No AGM can be selected:  ar_year &lt; filing _year (today's date)</t>
-  </si>
-  <si>
-    <t>The co-op has filed an extension which means the AGM will occur in the next year not in the same year as the filing year. When the AR filing is performed the system will accept an AGM Date in the next year when an extension has been granted.   An extension is a separate filing type and there is also a correction to extension.  If there was an extensio and a correction, we would want the most recent by the filing effective_dt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set up an AR like the "basic Ar Filing" scenario 
-2. Verify an extension filing exists in order to allow an AGM Date in the next year=&gt;
-select * 
-from filing  f 
-inner join event e on e.event_id = f.event_id
-where f.filing_typ_cd IN ('OTCGM', OTAGM') and e.corp_num = &lt;COOP#&gt; and effective_date &gt;= ar_year-11-01 order by effective_date desc
-3. populate the AGM Date on the UI with the period_end_dt/AGM_date.
+period_end_dt = AGM Date entered for BC Co-ops/anniversary of registration date for XPRO
+AGM_DATE = AGM Date entered for BC Co-ops/anniversary of registration date for XPRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Report No AGM was held for BC Co-ops only.
 </t>
   </si>
   <si>
-    <t>OTANN</t>
-  </si>
-  <si>
-    <t>OTCGM</t>
-  </si>
-  <si>
-    <t>AR Filing</t>
-  </si>
-  <si>
-    <t>Extension to AGM for 2019</t>
-  </si>
-  <si>
-    <t>OTAGM</t>
-  </si>
-  <si>
-    <t>2019-11-01  16:00:00 PM</t>
-  </si>
-  <si>
-    <t>2019-11-01  13:00:00 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must file the oldest, outstanding AR first.
-The AR filing must occur at a maximum 2 months after AGM but we don't prevent them from filing however they are considered to be out of compliance.
-The AGM must be held at a maximum of 4 months after the financial_year_end unless an extension was granted. Again, we don’t stop them from filing the are considered out of compliance.
-If an extension was granted the AGM year will be greater than the AR filing year. 
-You cannot select NO AGM held if the filing year = ar year.  This just means if you are filing 2018 and 2018 isn't over you cant say no agm held because you still have time to hold the agm.
-If the co-op  had a state of DS1 or Ds2 whne the Ar filing started and all outstanding ARs have been filed update the corp_state to active.
+    <t>6. File an AR when an extension has been granted. Extensions are for BC Co-ops only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+If the co-op  had a state of DS1 or DS2 when the AR filing started and all outstanding ARs have been filed update the corp_state to active.
 </t>
   </si>
   <si>
-    <t>8.If the payment was successful and the current corp_state != 'ACT' and they just filed the last outstanding ARs:
-UPDATE CORP_STATE set end_event_id = new_event_id
-INSERT INTO CORP_STATE state_typ_cd = 'ACT' and start_event_id = new event_id</t>
-  </si>
-  <si>
-    <t>UPDATE CORP_STATE set end_event_id = new_event_id</t>
-  </si>
-  <si>
-    <t>INSERT INTO CORP_STATE state_typ_cd = 'ACT' and start_event_id = new event_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must record a corrected annual report filing in the ledger.
+    <t>Must record a corrected annual report filing in the ledger.
 Must be able to produce the corrected Annual report as well.
 Must ask the user for the reason the correction is required. 
 Must record the reason as a standard comment + what the user enters  in the ledger_text for the corrected AR filing.
 If the AGM Date is edited,  determine if any director appointments, removal or changes have been impacted by a change to the AGM Date.
 If any directors are impacted, generate a corrected directors filing, add ledger_text 'Corrected 2018 Annual Report resulted in corrections to the Directors List'(Follow Corrections to Directors CRUD)
-Must continue to be able to produce the original Annual report from the original ar ledger entry.
+Must continue to be able to produce the original Annual report from the original AR ledger entry.
 Update corporation table with last_ar_filed,  last_ledger
-Provide alerts/notifications to print/download the corrected 2018 Annual Report?
-Not sure about fees? </t>
-  </si>
-  <si>
-    <t>CORPORATION</t>
-  </si>
-  <si>
-    <t>LAST_AR_FILED_DT</t>
-  </si>
-  <si>
-    <t>LAST_AGM_DATE</t>
-  </si>
-  <si>
-    <t>LAST_LEDGER_DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x
-LAST_AR_FILED_DT,
-LAST_AGM_DATE,
-LAST_LEDGER_DT
+Provide alerts/notifications to print/download the corrected 2018 Annual Report?</t>
+  </si>
+  <si>
+    <t>If the user mistakenly made a correction to the AR fields, in postgres do we want to allow a cancellation of a correction before submission?
+Not sure hwo we do this but maybe worth some discussion.</t>
+  </si>
+  <si>
+    <t>You cannot select No AGM Held if the filing year = today's calendar year.  Eg. Inorder to selecrt No AGM Held for AR year 2018 the current filing date must be in 2019.</t>
+  </si>
+  <si>
+    <t>The co-op has filed an extension indicating when they will hold the AGM for the specific filing year.  The system should retrieve the expected AGM date from the extension filing and display it on the screen?  The user enters the real AGM date and as long as it is on or before the extended date the system will accept this.  If it is past the exnded date, then the co-op must file NO AGM Held.  We may want to display a message for them or set up a NO AGM Held filing on the screen. Multiple extensions can be requested.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>General Rules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Must file the oldest, outstanding AR first.
+2. The AR filing must occur at a maximum 2 months after AGM for BC Co-ops or 2 months after the anniversary date (registration date) for XPRO co-ops  but we don't prevent them from filing however they are considered to be out of compliance for BC Co-ops.
+3. Fo BC co-ops, the AGM must be held at a maximum of 4 months after the financial_year_end unless an extension was granted. Again, we don’t stop them from filing they are considered out of compliance.
+4. If an extension was granted the AGM year  may not bein the same calendar year as the AR filing. For 2018, the  AGM was suppose to be 2018-11-25, asked for an extension to 2019-02-25.
+5. You cannot select NO AGM held if the filing year = the current year.  This means if you are filing 2018 and 2018 isn't over you can't say no agm held because you still have time to hold the agm.
+6. Extension Rules: An extension is a spearate filing however an overview is provided here for reference.
+1) Must be in good standing.
+2) Must have had an AGM last year.
+3)  Must be on or after Nov. 1st of the filing year to request an extension.
+4)  The extended AGM Date must be on or before March 31, of the following year.
+Eg. AGM was suppose to be Jan. of this year they could ask for an extension to March  before 12/31 in the same calendar year to avoid DS1 (first stage of invilunary disssolution).
+Eg. Asked for an extension for 2018 in 2019.  This is not allowed they must record no AGM held for 2018. 
 </t>
-  </si>
-  <si>
-    <t>OTCAN</t>
-  </si>
-  <si>
-    <t>Correction to the AR Filing - Requires ledger Text</t>
-  </si>
-  <si>
-    <t>Corrected 2018 Annual Report</t>
-  </si>
-  <si>
-    <t>Corrected AGM Date</t>
-  </si>
-  <si>
-    <t>Correction to AGM Extension for 2019</t>
-  </si>
-  <si>
-    <t>NO AGM Held for 2018 Annual Report Filing</t>
-  </si>
-  <si>
-    <t>CP0001306</t>
-  </si>
-  <si>
-    <t>CP0001307</t>
-  </si>
-  <si>
-    <t>Started in DS1, after submission back to Active.</t>
-  </si>
-  <si>
-    <t>CP0001308</t>
-  </si>
-  <si>
-    <t>2019-01-01  18:01:00 PM</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set up an AR like the "Basic AR Filing" scenario 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Verify an extension filing exists in order to allow an AGM Date in the next year=&gt;
+select period_end_dt 
+from filing  f 
+inner join event e on e.event_id = f.event_id
+where f.filing_typ_cd = 'OTCGM' and e.corp_num = &lt;COOP#&gt; and effective_date &gt;= ar_year-11-01 order by effective_date desc
+</t>
+  </si>
+  <si>
+    <t>3. Show the Extended Date on the UI using the perido_end_dt from the extension filing</t>
   </si>
 </sst>
 </file>
@@ -431,10 +454,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -501,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,9 +547,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +556,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C0621-2F0A-46A1-A350-D4176E6E9FF2}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,44 +890,42 @@
     <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -900,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -908,7 +941,7 @@
         <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -916,145 +949,149 @@
         <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="A23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>62</v>
+      <c r="A25" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="5" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1065,7 +1102,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1123,30 +1160,30 @@
         <v>43</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1217,13 +1254,13 @@
         <v>101993030</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1231,13 +1268,13 @@
         <v>101993031</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1245,13 +1282,13 @@
         <v>101993032</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1259,12 +1296,12 @@
         <v>101003033</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>43535.416666666664</v>
       </c>
       <c r="I10" t="s">
@@ -1328,7 +1365,7 @@
         <v>101993025</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4">
         <v>40235</v>
@@ -1346,7 +1383,7 @@
         <v>43511</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1354,7 +1391,7 @@
         <v>101993026</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4">
         <v>40238.583333333336</v>
@@ -1366,7 +1403,7 @@
         <v>43512</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1374,19 +1411,19 @@
         <v>101993030</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="14">
+        <v>81</v>
+      </c>
+      <c r="D6" s="13">
         <v>43891</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>43891</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1394,19 +1431,19 @@
         <v>101993031</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="14">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13">
         <v>43892</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>43892</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1414,13 +1451,13 @@
         <v>101993032</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1431,19 +1468,19 @@
         <v>101003033</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="14">
+        <v>75</v>
+      </c>
+      <c r="C11" s="13">
         <v>43535.416666666664</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>43522</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>43522</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1680,7 +1717,7 @@
         <v>40238.583333333336</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1694,7 +1731,7 @@
         <v>40238.584027777775</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1705,10 +1742,10 @@
         <v>101993030</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1719,10 +1756,10 @@
         <v>101993031</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1733,10 +1770,10 @@
         <v>101993032</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1751,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8889FDD2-F1AD-44FF-86C5-771D986AEE2B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1768,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +1830,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4">
         <v>43217</v>
@@ -1807,12 +1844,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="14">
+        <v>97</v>
+      </c>
+      <c r="B4" s="13">
         <v>43084.729166666664</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>43024</v>
       </c>
       <c r="D4" s="4">
@@ -1821,15 +1858,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="14">
+        <v>99</v>
+      </c>
+      <c r="B5" s="13">
         <v>43535.416666666664</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>43522</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>43535</v>
       </c>
     </row>
@@ -1866,7 +1903,7 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -1874,7 +1911,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>111304381</v>
@@ -1883,18 +1920,18 @@
         <v>101003033</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>101003033</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs/colin-crud/CO-CPRD-AR-Filing.xlsx
+++ b/docs/docs/colin-crud/CO-CPRD-AR-Filing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B57A9915-E988-48AB-80DC-55403C7BDCE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D50406-7815-44B2-81CA-450199B1E238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" xr2:uid="{6496526C-3854-45C4-8AA5-3E9C41776121}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>event_id</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>2. Correction to any AR filing elements</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Basic AR Filing for BC and Extraprovincial Co-operatives.  </t>
   </si>
   <si>
@@ -211,16 +208,7 @@
     <t>5.  Insert into ledger text standard comment, Corrected 2018 Annual Report</t>
   </si>
   <si>
-    <t>3. Cancel Correction</t>
-  </si>
-  <si>
     <t>7.  Update the corporation table with this Corrected AR filing date and last_ledger_update columns, last_agm date.</t>
-  </si>
-  <si>
-    <t>4. Remove an AR Filing</t>
-  </si>
-  <si>
-    <t>Do we want to do this in postgres before they pay?</t>
   </si>
   <si>
     <t>STATE_TYP_CD</t>
@@ -388,14 +376,28 @@
 Provide alerts/notifications to print/download the corrected 2018 Annual Report?</t>
   </si>
   <si>
-    <t>If the user mistakenly made a correction to the AR fields, in postgres do we want to allow a cancellation of a correction before submission?
-Not sure hwo we do this but maybe worth some discussion.</t>
-  </si>
-  <si>
     <t>You cannot select No AGM Held if the filing year = today's calendar year.  Eg. Inorder to selecrt No AGM Held for AR year 2018 the current filing date must be in 2019.</t>
   </si>
   <si>
     <t>The co-op has filed an extension indicating when they will hold the AGM for the specific filing year.  The system should retrieve the expected AGM date from the extension filing and display it on the screen?  The user enters the real AGM date and as long as it is on or before the extended date the system will accept this.  If it is past the exnded date, then the co-op must file NO AGM Held.  We may want to display a message for them or set up a NO AGM Held filing on the screen. Multiple extensions can be requested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set up an AR like the "Basic AR Filing" scenario 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Verify an extension filing exists in order to allow an AGM Date in the next year=&gt;
+select period_end_dt 
+from filing  f 
+inner join event e on e.event_id = f.event_id
+where f.filing_typ_cd = 'OTCGM' and e.corp_num = &lt;COOP#&gt; and effective_date &gt;= ar_year-11-01 order by effective_date desc
+</t>
+  </si>
+  <si>
+    <t>3. Show the Extended Date on the UI using the perido_end_dt from the extension filing</t>
+  </si>
+  <si>
+    <t>2. First AR Filing after Incorporation for BC Co-ops</t>
   </si>
   <si>
     <r>
@@ -423,7 +425,7 @@
 3. Fo BC co-ops, the AGM must be held at a maximum of 4 months after the financial_year_end unless an extension was granted. Again, we don’t stop them from filing they are considered out of compliance.
 4. If an extension was granted the AGM year  may not bein the same calendar year as the AR filing. For 2018, the  AGM was suppose to be 2018-11-25, asked for an extension to 2019-02-25.
 5. You cannot select NO AGM held if the filing year = the current year.  This means if you are filing 2018 and 2018 isn't over you can't say no agm held because you still have time to hold the agm.
-6. Extension Rules: An extension is a spearate filing however an overview is provided here for reference.
+6. Extension Rules: An extension is a spearate filing however an overview is provided here for reference:
 1) Must be in good standing.
 2) Must have had an AGM last year.
 3)  Must be on or after Nov. 1st of the filing year to request an extension.
@@ -434,19 +436,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. Set up an AR like the "Basic AR Filing" scenario 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Verify an extension filing exists in order to allow an AGM Date in the next year=&gt;
-select period_end_dt 
-from filing  f 
-inner join event e on e.event_id = f.event_id
-where f.filing_typ_cd = 'OTCGM' and e.corp_num = &lt;COOP#&gt; and effective_date &gt;= ar_year-11-01 order by effective_date desc
-</t>
-  </si>
-  <si>
-    <t>3. Show the Extended Date on the UI using the perido_end_dt from the extension filing</t>
+    <t>Same as a Basic AR Filing however the AGM Date must be no more than 3 months after incorporation</t>
+  </si>
+  <si>
+    <t>3. Correction to any AR filing elements</t>
+  </si>
+  <si>
+    <t>4. Cancel Correction</t>
+  </si>
+  <si>
+    <t>If the user mistakenly made a correction to the AR fields, in postgres do we want to allow a cancellation of a correction before submission?
+Not currently done but may be worth  a discussion.</t>
+  </si>
+  <si>
+    <t>7.  Allow more than one AR filing in a year.</t>
+  </si>
+  <si>
+    <t>When a co-op changes it's financial year end it is possible to have more than one AR filing in one year.  We must validate that the AGM Date for this AR filing is greater than the AGM date for the last AR filing for the same year.</t>
+  </si>
+  <si>
+    <t>1.Select last_agm_date from corporation where corp_num = co-op#
+2. Compare it to the agm date being filed.  If it is the same year, ensure that is what the user wants to do.
+3. Follow the same steps from Basic AR.</t>
   </si>
 </sst>
 </file>
@@ -456,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +479,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -546,22 +570,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,215 +917,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C0621-2F0A-46A1-A350-D4176E6E9FF2}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="74.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    </row>
+    <row r="28" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1136,7 +1189,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1160,30 +1213,30 @@
         <v>43</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1254,13 +1307,13 @@
         <v>101993030</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1268,13 +1321,13 @@
         <v>101993031</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1282,13 +1335,13 @@
         <v>101993032</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1296,12 +1349,12 @@
         <v>101003033</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>43535.416666666664</v>
       </c>
       <c r="I10" t="s">
@@ -1365,7 +1418,7 @@
         <v>101993025</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4">
         <v>40235</v>
@@ -1383,7 +1436,7 @@
         <v>43511</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1391,7 +1444,7 @@
         <v>101993026</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4">
         <v>40238.583333333336</v>
@@ -1403,7 +1456,7 @@
         <v>43512</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1411,19 +1464,19 @@
         <v>101993030</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="13">
+        <v>77</v>
+      </c>
+      <c r="D6" s="9">
         <v>43891</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>43891</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1431,19 +1484,19 @@
         <v>101993031</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="13">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9">
         <v>43892</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>43892</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1451,13 +1504,13 @@
         <v>101993032</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1468,19 +1521,19 @@
         <v>101003033</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="13">
+        <v>71</v>
+      </c>
+      <c r="C11" s="9">
         <v>43535.416666666664</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>43522</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <v>43522</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1717,7 +1770,7 @@
         <v>40238.583333333336</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1731,7 +1784,7 @@
         <v>40238.584027777775</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1742,10 +1795,10 @@
         <v>101993030</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1756,10 +1809,10 @@
         <v>101993031</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1770,10 +1823,10 @@
         <v>101993032</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1805,13 +1858,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1830,7 +1883,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4">
         <v>43217</v>
@@ -1844,12 +1897,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="13">
+        <v>93</v>
+      </c>
+      <c r="B4" s="9">
         <v>43084.729166666664</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>43024</v>
       </c>
       <c r="D4" s="4">
@@ -1858,15 +1911,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="13">
+        <v>95</v>
+      </c>
+      <c r="B5" s="9">
         <v>43535.416666666664</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>43522</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>43535</v>
       </c>
     </row>
@@ -1903,7 +1956,7 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -1911,7 +1964,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>111304381</v>
@@ -1920,18 +1973,18 @@
         <v>101003033</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>101003033</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs/colin-crud/CO-CPRD-AR-Filing.xlsx
+++ b/docs/docs/colin-crud/CO-CPRD-AR-Filing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lear\docs\docs\colin-crud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D50406-7815-44B2-81CA-450199B1E238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C5D3D-288C-4A15-AD8C-1D4652B2BC42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" xr2:uid="{6496526C-3854-45C4-8AA5-3E9C41776121}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" firstSheet="1" activeTab="1" xr2:uid="{6496526C-3854-45C4-8AA5-3E9C41776121}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Scenarios" sheetId="7" r:id="rId1"/>
@@ -249,9 +249,6 @@
 Required for Corrected AR</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Set up an AR like the "basic AR Filing" scenario with No AGM_Date and ledeger_text that reflects NO AGM was held for 2018. </t>
-  </si>
-  <si>
     <t>OTANN</t>
   </si>
   <si>
@@ -379,25 +376,35 @@
     <t>You cannot select No AGM Held if the filing year = today's calendar year.  Eg. Inorder to selecrt No AGM Held for AR year 2018 the current filing date must be in 2019.</t>
   </si>
   <si>
-    <t>The co-op has filed an extension indicating when they will hold the AGM for the specific filing year.  The system should retrieve the expected AGM date from the extension filing and display it on the screen?  The user enters the real AGM date and as long as it is on or before the extended date the system will accept this.  If it is past the exnded date, then the co-op must file NO AGM Held.  We may want to display a message for them or set up a NO AGM Held filing on the screen. Multiple extensions can be requested.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Set up an AR like the "Basic AR Filing" scenario 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2. Verify an extension filing exists in order to allow an AGM Date in the next year=&gt;
-select period_end_dt 
-from filing  f 
-inner join event e on e.event_id = f.event_id
-where f.filing_typ_cd = 'OTCGM' and e.corp_num = &lt;COOP#&gt; and effective_date &gt;= ar_year-11-01 order by effective_date desc
-</t>
-  </si>
-  <si>
-    <t>3. Show the Extended Date on the UI using the perido_end_dt from the extension filing</t>
-  </si>
-  <si>
     <t>2. First AR Filing after Incorporation for BC Co-ops</t>
+  </si>
+  <si>
+    <t>Same as a Basic AR Filing however the AGM Date must be no more than 3 months after incorporation</t>
+  </si>
+  <si>
+    <t>3. Correction to any AR filing elements</t>
+  </si>
+  <si>
+    <t>4. Cancel Correction</t>
+  </si>
+  <si>
+    <t>If the user mistakenly made a correction to the AR fields, in postgres do we want to allow a cancellation of a correction before submission?
+Not currently done but may be worth  a discussion.</t>
+  </si>
+  <si>
+    <t>7.  Allow more than one AR filing in a year.</t>
+  </si>
+  <si>
+    <t>When a co-op changes it's financial year end it is possible to have more than one AR filing in one year.  We must validate that the AGM Date for this AR filing is greater than the AGM date for the last AR filing for the same year.</t>
+  </si>
+  <si>
+    <t>1.Select last_agm_date from corporation where corp_num = co-op#
+2. Compare it to the agm date being filed.  If it is the same year, ensure that is what the user wants to do.
+3. Follow the same steps from Basic AR.</t>
   </si>
   <si>
     <r>
@@ -428,36 +435,33 @@
 6. Extension Rules: An extension is a spearate filing however an overview is provided here for reference:
 1) Must be in good standing.
 2) Must have had an AGM last year.
-3)  Must be on or after Nov. 1st of the filing year to request an extension.
-4)  The extended AGM Date must be on or before March 31, of the following year.
-Eg. AGM was suppose to be Jan. of this year they could ask for an extension to March  before 12/31 in the same calendar year to avoid DS1 (first stage of invilunary disssolution).
-Eg. Asked for an extension for 2018 in 2019.  This is not allowed they must record no AGM held for 2018. 
+3)  An extension can be granted between the fiscal/financial year end + 4 months. The extension deadline is March 31 of the next calendar year.  eg. AR filing year 2019 - extension can be granted to 2020-03-31
+4)  When they file an AR, if  the AGM Date entered is in the next calendar year and it is &lt;= 03-31, the system should check for an extension.  If no extension exists. the system should select NO AGMHeld for this year's AR filing.  If  an extension filing exists for this calendar year but the AGm date entered &gt; 03-31 then the system should select NO AGm Held for this filing year. 
 </t>
     </r>
   </si>
   <si>
-    <t>Same as a Basic AR Filing however the AGM Date must be no more than 3 months after incorporation</t>
-  </si>
-  <si>
-    <t>3. Correction to any AR filing elements</t>
-  </si>
-  <si>
-    <t>4. Cancel Correction</t>
-  </si>
-  <si>
-    <t>If the user mistakenly made a correction to the AR fields, in postgres do we want to allow a cancellation of a correction before submission?
-Not currently done but may be worth  a discussion.</t>
-  </si>
-  <si>
-    <t>7.  Allow more than one AR filing in a year.</t>
-  </si>
-  <si>
-    <t>When a co-op changes it's financial year end it is possible to have more than one AR filing in one year.  We must validate that the AGM Date for this AR filing is greater than the AGM date for the last AR filing for the same year.</t>
-  </si>
-  <si>
-    <t>1.Select last_agm_date from corporation where corp_num = co-op#
-2. Compare it to the agm date being filed.  If it is the same year, ensure that is what the user wants to do.
-3. Follow the same steps from Basic AR.</t>
+    <t xml:space="preserve">2. Verify an extension filing exists in order to allow an AGM Date in the next year=&gt;
+select period_end_dt 
+from filing  f 
+inner join event e on e.event_id = f.event_id
+where f.filing_typ_cd = 'OTEXT' and e.corp_num = &lt;COOP#&gt; and year(effective_date) &gt;= ar_year
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set up an AR like the "basic AR Filing" scenario with No AGM_Date and ledger_text that reflects NO AGM was held for 2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The user enters an AGM Date in the next calendar year compared to the year that is being filed. 
+2. The system queries the ldeger for an extension filing. 
+The extension filing exists and the entered AGM Date &gt;  period_end_dt (03-31) or no extension exists THEN 
+  3. file a NO AGM held. (follow basic AR and #5)
+ELSE
+4.  just file the AR. (follow basic AR)
+</t>
+  </si>
+  <si>
+    <t>**NOTE: IMS Import uses same fields as in the CRUD for AR filing.</t>
   </si>
 </sst>
 </file>
@@ -467,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,13 +483,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -552,11 +549,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,9 +610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,16 +624,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,44 +956,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C0621-2F0A-46A1-A350-D4176E6E9FF2}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="12"/>
+    <col min="3" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:2" ht="265.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>67</v>
@@ -965,11 +1004,11 @@
         <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -977,7 +1016,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -985,7 +1024,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -993,7 +1032,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1001,11 +1040,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,16 +1053,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>109</v>
+      <c r="A12" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>112</v>
+      <c r="A13" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>30</v>
@@ -1031,7 +1070,7 @@
     </row>
     <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>67</v>
@@ -1039,7 +1078,7 @@
     </row>
     <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,82 +1103,76 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>113</v>
+      <c r="A22" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>114</v>
+      <c r="A23" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>100</v>
+      <c r="A24" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="21"/>
-    </row>
-    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
+      <c r="B27" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1152,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC52D25B-BA60-44A1-9CFB-2CE852C334E7}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,14 +1266,27 @@
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1307,13 +1353,13 @@
         <v>101993030</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1321,13 +1367,13 @@
         <v>101993031</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1335,13 +1381,13 @@
         <v>101993032</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1349,7 +1395,7 @@
         <v>101003033</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1418,7 +1464,7 @@
         <v>101993025</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4">
         <v>40235</v>
@@ -1436,7 +1482,7 @@
         <v>43511</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1444,7 +1490,7 @@
         <v>101993026</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4">
         <v>40238.583333333336</v>
@@ -1456,7 +1502,7 @@
         <v>43512</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1464,10 +1510,10 @@
         <v>101993030</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9">
         <v>43891</v>
@@ -1476,7 +1522,7 @@
         <v>43891</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1484,10 +1530,10 @@
         <v>101993031</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="9">
         <v>43892</v>
@@ -1496,7 +1542,7 @@
         <v>43892</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1504,13 +1550,13 @@
         <v>101993032</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1521,7 +1567,7 @@
         <v>101003033</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9">
         <v>43535.416666666664</v>
@@ -1533,7 +1579,7 @@
         <v>43522</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1770,7 +1816,7 @@
         <v>40238.583333333336</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1784,7 +1830,7 @@
         <v>40238.584027777775</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1795,10 +1841,10 @@
         <v>101993030</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1809,10 +1855,10 @@
         <v>101993031</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1823,10 +1869,10 @@
         <v>101993032</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1858,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,7 +1929,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4">
         <v>43217</v>
@@ -1897,7 +1943,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="9">
         <v>43084.729166666664</v>
@@ -1911,7 +1957,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="9">
         <v>43535.416666666664</v>
@@ -1964,7 +2010,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>111304381</v>
@@ -1978,7 +2024,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>101003033</v>
